--- a/data.xlsx
+++ b/data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,27 +437,42 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Ссылка</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Артикул</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Цена</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Остаток</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Продано</t>
+          <t>Количество заказов</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Цвет</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Колисество отзывов</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Рейтинг</t>
         </is>
       </c>
     </row>
@@ -467,22 +482,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/4390815/detail.aspx?targetUrl=MI</t>
+          <t>eksmo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4390815</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>999</v>
+          <t>https://beru.ru/product/bloknot-eksmo-unicorn-note-a5-80-listov/557513082</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>3488</v>
+        <v>439</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -491,22 +521,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/7553935/detail.aspx?targetUrl=MI</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7553935</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>6744</v>
+          <t>https://beru.ru/product/noutbuk-asus-vivobook-15-x542ua-dm749-intel-core-i7-7500u-2700-mhz-15-6-1920x1080-8gb-1000gb-hdd-dvd-rw-intel-hd-graphics-620-wi-fi-bluetooth-endless-os-90nb0f22-m10130-seryi/100439576026</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>212</v>
+        <v>39990</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>48</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -515,22 +560,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/11798034/detail.aspx?targetUrl=MI</t>
+          <t>canon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11798034</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4276</v>
+          <t>https://beru.ru/product/mfu-canon-pixma-mg2540s/14256539</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2540</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>320</v>
+        <v>2560</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>181</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -539,22 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/10210357/detail.aspx?targetUrl=MI</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10210357</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>368</v>
+          <t>https://beru.ru/product/monitor-asus-vp247hae-23-6-chernyi/100898300666</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>8131</v>
+        <v>6989</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -563,22 +638,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/10498088/detail.aspx?targetUrl=MI</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10498088</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2495</v>
+          <t>https://beru.ru/product/wi-fi-usilitel-signala-repiter-xiaomi-mi-wi-fi-amplifier-pro-chernyi/100399248896</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100399248896</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>565</v>
+        <v>1200</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>32</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -587,70 +677,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/11645817/detail.aspx?targetUrl=MI</t>
+          <t>seagate</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11645817</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1999</v>
+          <t>https://beru.ru/product/vneshnii-hdd-seagate-expansion-portable-drive-1-tb-chernyi/100324823735</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3790</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/10978789/detail.aspx?targetUrl=MI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10978789</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>631</v>
-      </c>
-      <c r="E8" t="n">
-        <v>17</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/8745698/detail.aspx?targetUrl=MI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8745698</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1918</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1034</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
+        <v>296</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>63</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,42 +437,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Бренд</t>
+          <t>Ссылка</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Ссылка</t>
+          <t>Артикул</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Артикул</t>
+          <t>Цена</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Цена</t>
+          <t>Остаток</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Количество заказов</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Цвет</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Колисество отзывов</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Рейтинг</t>
+          <t>Продано</t>
         </is>
       </c>
     </row>
@@ -482,37 +467,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eksmo</t>
+          <t>https://www.wildberries.ru/catalog/4390815/detail.aspx?targetUrl=MI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://beru.ru/product/bloknot-eksmo-unicorn-note-a5-80-listov/557513082</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>4390815</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>999</v>
       </c>
       <c r="E2" t="n">
-        <v>439</v>
+        <v>3488</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -521,37 +491,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>https://www.wildberries.ru/catalog/7553935/detail.aspx?targetUrl=MI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://beru.ru/product/noutbuk-asus-vivobook-15-x542ua-dm749-intel-core-i7-7500u-2700-mhz-15-6-1920x1080-8gb-1000gb-hdd-dvd-rw-intel-hd-graphics-620-wi-fi-bluetooth-endless-os-90nb0f22-m10130-seryi/100439576026</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>7553935</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6744</v>
       </c>
       <c r="E3" t="n">
-        <v>39990</v>
+        <v>212</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>48</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,37 +515,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>canon</t>
+          <t>https://www.wildberries.ru/catalog/11798034/detail.aspx?targetUrl=MI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://beru.ru/product/mfu-canon-pixma-mg2540s/14256539</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2540</t>
-        </is>
+          <t>11798034</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4276</v>
       </c>
       <c r="E4" t="n">
-        <v>2560</v>
+        <v>320</v>
       </c>
       <c r="F4" t="n">
-        <v>467</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>181</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -599,37 +539,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>asus</t>
+          <t>https://www.wildberries.ru/catalog/10210357/detail.aspx?targetUrl=MI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://beru.ru/product/monitor-asus-vp247hae-23-6-chernyi/100898300666</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
+          <t>10210357</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>368</v>
       </c>
       <c r="E5" t="n">
-        <v>6989</v>
+        <v>8131</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -638,37 +563,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>https://www.wildberries.ru/catalog/10498088/detail.aspx?targetUrl=MI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://beru.ru/product/wi-fi-usilitel-signala-repiter-xiaomi-mi-wi-fi-amplifier-pro-chernyi/100399248896</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>100399248896</t>
-        </is>
+          <t>10498088</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2495</v>
       </c>
       <c r="E6" t="n">
-        <v>1200</v>
+        <v>565</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>32</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -677,37 +587,70 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>seagate</t>
+          <t>https://www.wildberries.ru/catalog/11645817/detail.aspx?targetUrl=MI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://beru.ru/product/vneshnii-hdd-seagate-expansion-portable-drive-1-tb-chernyi/100324823735</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>11645817</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1999</v>
       </c>
       <c r="E7" t="n">
-        <v>3790</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>296</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>63</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/10978789/detail.aspx?targetUrl=MI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10978789</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>631</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/8745698/detail.aspx?targetUrl=MI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8745698</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1918</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,27 +437,42 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Бренд</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Ссылка</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Артикул</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Цена</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Остаток</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Продано</t>
+          <t>Количество заказов</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Цвет</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Колисество отзывов</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Рейтинг</t>
         </is>
       </c>
     </row>
@@ -467,22 +482,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/4390815/detail.aspx?targetUrl=MI</t>
+          <t>eksmo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4390815</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>999</v>
+          <t>https://beru.ru/product/bloknot-eksmo-unicorn-note-a5-80-listov/557513082</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>3488</v>
+        <v>439</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -491,22 +521,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/7553935/detail.aspx?targetUrl=MI</t>
+          <t>canon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7553935</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>6744</v>
+          <t>https://beru.ru/product/mfu-canon-pixma-mg2540s/14256539</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2540</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>212</v>
+        <v>2505</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>460</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>181</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -515,22 +560,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/11798034/detail.aspx?targetUrl=MI</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11798034</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4276</v>
+          <t>https://beru.ru/product/monitor-asus-vp247hae-23-6-chernyi/100898300666</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>320</v>
+        <v>7019</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -539,22 +599,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/10210357/detail.aspx?targetUrl=MI</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10210357</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>368</v>
+          <t>https://beru.ru/product/wi-fi-usilitel-signala-repiter-xiaomi-mi-wi-fi-amplifier-pro-chernyi/100399248896</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>100399248896</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>8131</v>
+        <v>1200</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>32</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -563,22 +638,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/10498088/detail.aspx?targetUrl=MI</t>
+          <t>seagate</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10498088</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2495</v>
+          <t>https://beru.ru/product/vneshnii-hdd-seagate-expansion-portable-drive-1-tb-chernyi/100324823735</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>565</v>
+        <v>3790</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>63</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -587,70 +677,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.wildberries.ru/catalog/11645817/detail.aspx?targetUrl=MI</t>
+          <t>asus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11645817</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1999</v>
+          <t>https://beru.ru/product/noutbuk-asus-vivobook-15-x542ua-dm749-intel-core-i7-7500u-2700-mhz-15-6-1920x1080-8gb-1000gb-hdd-dvd-rw-intel-hd-graphics-620-wi-fi-bluetooth-endless-os-90nb0f22-m10130-seryi/100439576026</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>43999</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/10978789/detail.aspx?targetUrl=MI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10978789</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>631</v>
-      </c>
-      <c r="E8" t="n">
-        <v>17</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.wildberries.ru/catalog/8745698/detail.aspx?targetUrl=MI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8745698</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1918</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1034</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>48</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,21 +482,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eksmo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://beru.ru/product/bloknot-eksmo-unicorn-note-a5-80-listov/557513082</t>
+          <t>https://beru.ru/catalog/smartfony-i-mobilnye-telefony/80542/list?hid=91491</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>80542</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>439</v>
+        <v>8700</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -521,24 +521,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>canon</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://beru.ru/product/mfu-canon-pixma-mg2540s/14256539</t>
+          <t>https://beru.ru/product/bloknot-eksmo-unicorn-note-a5-80-listov/557513082</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2505</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -546,13 +546,9 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>181</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -565,19 +561,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://beru.ru/product/monitor-asus-vp247hae-23-6-chernyi/100898300666</t>
+          <t>https://beru.ru/product/noutbuk-asus-vivobook-15-x542ua-dm749-intel-core-i7-7500u-2700-mhz-15-6-1920x1080-8gb-1000gb-hdd-dvd-rw-intel-hd-graphics-620-wi-fi-bluetooth-endless-os-90nb0f22-m10130-seryi/100439576026</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7019</v>
+        <v>43999</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -585,7 +581,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -599,24 +595,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://beru.ru/product/wi-fi-usilitel-signala-repiter-xiaomi-mi-wi-fi-amplifier-pro-chernyi/100399248896</t>
+          <t>https://beru.ru/product/bloknot-eksmo-unicorn-note-a5-80-listov/557513082</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100399248896</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -624,91 +620,9 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>32</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>seagate</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://beru.ru/product/vneshnii-hdd-seagate-expansion-portable-drive-1-tb-chernyi/100324823735</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>3790</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>63</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>asus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://beru.ru/product/noutbuk-asus-vivobook-15-x542ua-dm749-intel-core-i7-7500u-2700-mhz-15-6-1920x1080-8gb-1000gb-hdd-dvd-rw-intel-hd-graphics-620-wi-fi-bluetooth-endless-os-90nb0f22-m10130-seryi/100439576026</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>43999</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>48</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
